--- a/backtest/bt_report/bs_er_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_er_rs_smae_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>254980062.2746346</v>
+        <v>878429754.5285385</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>7964.141134597361</v>
+        <v>8385.534638345242</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>1.549800622746346</v>
+        <v>7.784297545285385</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1251742485790583</v>
+        <v>0.3149434823124215</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>2.549800622746346</v>
+        <v>8.784297545285385</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>44.10281391086509</v>
+        <v>214.0674760278833</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.09003979415260499</v>
+        <v>0.7290071512455809</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.06137697668177003</v>
+        <v>0.243968449864104</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.251525535344838</v>
+        <v>1.068449381470495</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.04035626090544594</v>
+        <v>0.171411379060634</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.903418500030907</v>
+        <v>1.520715490325821</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.0452753650735147</v>
+        <v>0.3096022945777489</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.00589746700858856</v>
+        <v>0.02448380507695459</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>-0.118040624928101</v>
+        <v>2.751017229959372</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>-0.01570218459506423</v>
+        <v>0.1812526109241541</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.07463895636457617</v>
+        <v>0.2408653655598117</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.13820854794537</v>
+        <v>0.6334406453512201</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>2.148305942648316</v>
+        <v>1.317921027134841</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.02565673235685634</v>
+        <v>0.8894593525955901</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.4258334991238483</v>
+        <v>0.2391045534336427</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2062476445209215</v>
+        <v>0.2126513435592835</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.06994073949793342</v>
+        <v>0.2277612593764688</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.1837233602596126</v>
+        <v>0.7770658756572443</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.118663080347335</v>
+        <v>1.044186228501205</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>2.116710619908951</v>
+        <v>1.64370825377091</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.976373610548515</v>
+        <v>1.347309848962228</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.02558513703103166</v>
+        <v>0.02534952653716738</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.04382906985267152</v>
+        <v>0.3002748755624809</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.4556430000000009</v>
+        <v>1.029974999999999</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>-0.09277415240950472</v>
+        <v>0.2885985388947604</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.89303580863656</v>
+        <v>3.61283511256571</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>2.580073644176284</v>
+        <v>3.920240020077884</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.2803008704744232</v>
+        <v>1.332656313501397</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.05725694800643751</v>
+        <v>1.034446510314751</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>3.630330956724912</v>
+        <v>2.753228098413009</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>4.591988995388495</v>
+        <v>4.753502020659956</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.6730769230769231</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.002113045237304067</v>
+        <v>-0.1153322095592322</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.0817979127965298</v>
+        <v>-0.0261282956686391</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>0.07163689263080132</v>
+        <v>-0.5487290559449411</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.3484975912407213</v>
+        <v>-0.3756723822907947</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.06688213047875786</v>
+        <v>0.2339714722152126</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>-0.1300479987324928</v>
+        <v>0.01250143487406249</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.28718105233611</v>
+        <v>1.494096920044173</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.02591313578815552</v>
+        <v>0.2944953072629012</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="6">
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.02051183734268533</v>
+        <v>0.01039746454073254</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.311775757191548</v>
+        <v>0.3180323274595381</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>0.554213890244603</v>
+        <v>0.1498961623644822</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>1.230030171992932</v>
+        <v>0.7490264594292123</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.5882352941176471</v>
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.145170745429528</v>
+        <v>0.6258369730123841</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1847759535562673</v>
+        <v>0.1899560829025482</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>2.830169053964183</v>
+        <v>2.198462640313031</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>2.351801357803965</v>
+        <v>1.934087676008095</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.04770835256907142</v>
+        <v>0.1765970573476976</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.2102361488603704</v>
+        <v>-0.07891820401791755</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.044401272740766</v>
+        <v>0.744110833517249</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.09733842824894012</v>
+        <v>-0.3942761594684238</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.02990502353404654</v>
+        <v>-0.03166702047302813</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.05518853436811594</v>
+        <v>0.01631331497599384</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.8515544779163484</v>
+        <v>-0.002810297900924925</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>1.308363786386426</v>
+        <v>0.0643573404183851</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5192307692307693</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.01479972060980281</v>
+        <v>-0.09205706078949241</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.09634534309939886</v>
+        <v>-0.01166321321494687</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.23629824638735</v>
+        <v>-1.083024277708419</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.699354359429594</v>
+        <v>-0.756333416773908</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.5600000000000001</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.01163799999999993</v>
+        <v>-0.03405599999999986</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01642819129023598</v>
+        <v>0.02418463182130659</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.01624827418701424</v>
+        <v>0.02471431964864235</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.07450520216040069</v>
+        <v>0.1064103259663329</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.003820468082546657</v>
+        <v>-0.01289463806659763</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.03629042958651918</v>
+        <v>0.07734793156581654</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02017037351660544</v>
+        <v>0.02686445288953898</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1160275081256297</v>
+        <v>0.2336716340898086</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.1289821699612441</v>
+        <v>0.3434121367861871</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.003876637334841115</v>
+        <v>-0.01751647187773264</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.02828206896551722</v>
+        <v>0.1179302021593274</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.05041015848998853</v>
+        <v>0.1960962837148408</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.05651234762998381</v>
+        <v>0.1982369389378211</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.0503318166242519</v>
+        <v>0.2255759261838117</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.002921237633503493</v>
+        <v>-0.04415787826063922</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003763541722245911</v>
+        <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01026635246133556</v>
+        <v>0.0444190129980877</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.006529336186983592</v>
+        <v>0.008139295465735774</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.02231743879777537</v>
+        <v>0.1068543246385831</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.01334885999449043</v>
+        <v>0.07371713102753952</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01116334235081817</v>
+        <v>0.01088068013217014</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.01076966250836398</v>
+        <v>-0.0841041857699113</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.001653296014840766</v>
+        <v>-0.03496141670899622</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.01335508096335025</v>
+        <v>0.07874244329153535</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.001624539090471444</v>
+        <v>-0.04074535999427709</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.00184984959266965</v>
+        <v>-0.02598247916107232</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.008338141702827429</v>
+        <v>0.0233492191878113</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.0001606081411309468</v>
+        <v>-0.01324530771324528</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.003186655713036446</v>
+        <v>-0.01064734845692694</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.01003896858343489</v>
+        <v>-0.02924882859706168</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.004825165389879205</v>
+        <v>0.005703321213602619</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.003718189181125098</v>
+        <v>0.04472618264665695</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.008546486751060955</v>
+        <v>-0.02544456391814609</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.001883702015261335</v>
+        <v>0.01952658667988816</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.001131944180935429</v>
+        <v>0.02850635040604943</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.008052379973681356</v>
+        <v>0.008809248891786359</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.001389066148250961</v>
+        <v>0.01539552714386017</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.00120945010476281</v>
+        <v>0.003922592689309612</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01495962717663812</v>
+        <v>0.0620325531714716</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01691290004793045</v>
+        <v>0.02803620264140871</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.01134566669225423</v>
+        <v>0.03091175849188832</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.001556506866644103</v>
+        <v>0.005006296715225123</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.01363363539359419</v>
+        <v>0.05182871281373935</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.003300634357799148</v>
+        <v>-0.02217672914223157</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.003576109726708077</v>
+        <v>-0.01641215527747564</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.006017039831207605</v>
+        <v>0.0360567441138846</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.02067351560017305</v>
+        <v>-0.05908290476539924</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01831531127216368</v>
+        <v>0.06459655012768883</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.004738843358040978</v>
+        <v>-0.02803969492513647</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.01309851834948583</v>
+        <v>0.1282540617698551</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.006870913743712848</v>
+        <v>-0.0476732712396386</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.002360935362025307</v>
+        <v>-0.01624786861626792</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.006287643753348338</v>
+        <v>-0.03380627340652387</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.002741919062481335</v>
+        <v>0.005915429692561647</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.0009373158754495403</v>
+        <v>-0.01222425559488127</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.008124125524685333</v>
+        <v>-0.008195046723408317</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.007891118427248545</v>
+        <v>-0.004743817649897952</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.002532239455723673</v>
+        <v>-0.03695241114856085</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.06050845343400568</v>
+        <v>0.3000771771531765</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.01600638600360615</v>
+        <v>0.04270258449973041</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.006738864537703115</v>
+        <v>-0.02312990696941764</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>8.384562086316549e-05</v>
+        <v>-0.01788390885081048</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.01361824327748096</v>
+        <v>0.1074886181607122</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.0004785491371797068</v>
+        <v>-0.03009793859113985</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.01721419256979839</v>
+        <v>0.05310514324260063</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.008013559758412558</v>
+        <v>0.02223024318471256</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.01230790515516622</v>
+        <v>0.03421494894811472</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.006519362282578101</v>
+        <v>-0.03588883577175062</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.02670007041418265</v>
+        <v>0.1258343268004916</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.001047426204550783</v>
+        <v>-0.03271513556665195</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.01518015413101004</v>
+        <v>-0.06283005712620282</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.006000560197489069</v>
+        <v>-0.05245550763733919</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.008846909622178378</v>
+        <v>0.03685472695256586</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.002466279656196946</v>
+        <v>0.03201789692370482</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.01195596280310074</v>
+        <v>0.1282151940593035</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.03588626165911069</v>
+        <v>0.1847023052711569</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.001015801907600089</v>
+        <v>-0.0545996609909869</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01125591569306872</v>
+        <v>-0.07120126198241483</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.004021841834846995</v>
+        <v>-0.02931863957163217</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.002622303948942362</v>
+        <v>0.05168672057937584</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.01025804541417163</v>
+        <v>0.06843629723480049</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.007008362241085031</v>
+        <v>0.027507919107155</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.001638747046408651</v>
+        <v>-0.08842255085678374</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.003544623152415549</v>
+        <v>-0.0337696961666607</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.002484825299147397</v>
+        <v>0.005423677304747576</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.01064361244483902</v>
+        <v>0.02956156961851542</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.003314775222862831</v>
+        <v>-0.03268726731906813</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.004702635112630693</v>
+        <v>0.09699676283902647</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.005737655993907964</v>
+        <v>0.0665820887693398</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>0.002913211947497718</v>
+        <v>-0.08217261347101157</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.001871594465741144</v>
+        <v>-0.01388041836971232</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.002225208751018726</v>
+        <v>-0.01859953737381881</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.008742030800854783</v>
+        <v>0.02815950962623148</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.003064536349580038</v>
+        <v>-0.05219471531879505</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.003572576314964993</v>
+        <v>0.0119272005866109</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.00667339203711903</v>
+        <v>-0.09119833574298852</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.003294237127406174</v>
+        <v>-0.07578136376335254</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.007110076814222488</v>
+        <v>0.02230739878824828</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.01593021186822696</v>
+        <v>0.09476045668415778</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.001301007505238649</v>
+        <v>0.0070376751608896</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.02030868122239382</v>
+        <v>-0.002282853931200424</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01631044485166244</v>
+        <v>0.02416924977014356</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.01208813411346665</v>
+        <v>0.02122108848558879</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>-0.01020077578014544</v>
+        <v>0.02013286832353867</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.001020091138042023</v>
+        <v>-0.007303439445869198</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.01194959768613924</v>
+        <v>0.02799110543528993</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.003615270297001483</v>
+        <v>0.003899653364043631</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>-0.004448977729947678</v>
+        <v>0.1024990678089999</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.1098165352857354</v>
+        <v>0.07173531657900889</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.01485133651517856</v>
+        <v>0.006130274233876909</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.01412184056453203</v>
+        <v>0.07379196534924648</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.07708943456933293</v>
+        <v>0.0534839244302876</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.102289848051983</v>
+        <v>0.02172399359084731</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.02108465562054218</v>
+        <v>0.2004455690823119</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.06084429764359989</v>
+        <v>0.01982546367949189</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.1378173958521247</v>
+        <v>0.1336278546596594</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.1126121990138991</v>
+        <v>0.1589049486051182</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.04848302808778504</v>
+        <v>0.05049527180417224</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.07693139729178067</v>
+        <v>0.004305154259457211</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.001213227360086111</v>
+        <v>0.06857316119579204</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.03780926446491617</v>
+        <v>-0.03515022984317728</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2260599518306745</v>
+        <v>0.1405700436918202</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.01850937068929315</v>
+        <v>-0.01608330199161934</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.09781857071728828</v>
+        <v>-0.03551668869680435</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.01660197982197475</v>
+        <v>-0.02180792876654691</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.00842031563581791</v>
+        <v>-0.03141969003235356</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01212490902713825</v>
+        <v>0.02905242038604694</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01629827037783993</v>
+        <v>-0.02815786014066435</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03562349484323191</v>
+        <v>-0.04848332910532227</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.01178551524417282</v>
+        <v>-0.007552754380985793</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.02066514204476388</v>
+        <v>-0.01968465658844343</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.05398778452335262</v>
+        <v>-0.01469308463187746</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.05836718091310988</v>
+        <v>0.04105236610689933</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.02149914521033169</v>
+        <v>-0.004140740356919803</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.01808858779495204</v>
+        <v>0.009093906944606989</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.006715364563558035</v>
+        <v>0.00784189666564461</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.00582759029091573</v>
+        <v>0.02008151811227599</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.01475136913055308</v>
+        <v>-0.01207385068392131</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>-0.03385447043020495</v>
+        <v>0.01200883870415059</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.002936633077295525</v>
+        <v>0.008714035948705678</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.01163687592526474</v>
+        <v>0.008736693165191767</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.002255033125166062</v>
+        <v>0.001387195961455756</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.02964293822942332</v>
+        <v>0.007221676516400821</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.004344984045146383</v>
+        <v>-0.02188788269778474</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.011119419177402</v>
+        <v>-0.02350864182881651</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.05246233996346572</v>
+        <v>-0.02304430550471337</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.03619841294477721</v>
+        <v>-0.003840796278980041</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.0490579286838797</v>
+        <v>0.09855275488439053</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.03064692827822357</v>
+        <v>0.007296914222700401</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>-0.0006078797310272721</v>
+        <v>0.1149132814276623</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.0721691730895051</v>
+        <v>0.02971673752727511</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.003049365627120659</v>
+        <v>-0.02103753954112753</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.04302351145159489</v>
+        <v>0.01471271993255363</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.03051056048600631</v>
+        <v>-0.02695050543759347</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.08079651050411107</v>
+        <v>0.06785659871071403</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.00125878775846644</v>
+        <v>-0.01454235607662679</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.05975100425068525</v>
+        <v>0.04806975177243267</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.06403860903225833</v>
+        <v>-0.0958293387969934</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.07853029572533143</v>
+        <v>0.1382546169404624</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.04200688984126322</v>
+        <v>-0.01130901350227065</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02021128594179455</v>
+        <v>-0.03323618994228417</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.07006192540819223</v>
+        <v>0.05246571806640343</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.040539769922595</v>
+        <v>0.05102242230873721</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.004898243159074722</v>
+        <v>-0.0328797426086902</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02452948988696679</v>
+        <v>0.06155918586498643</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.003241504329108524</v>
+        <v>0.01875744466880036</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.007131775274237806</v>
+        <v>0.01468754702931552</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.007505842674879748</v>
+        <v>-0.02124624893828964</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.04132666920658268</v>
+        <v>0.0527831966033927</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.02251589741759541</v>
+        <v>-0.01028615236314456</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.006806276184836868</v>
+        <v>-0.04526813503756422</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.06570705461766679</v>
+        <v>0.01062092203119613</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.05128558291154539</v>
+        <v>-0.0241532325593028</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01332491831120297</v>
+        <v>0.04436457361988522</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.06161769004477369</v>
+        <v>0.04758657132142785</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.09011399381036456</v>
+        <v>0.04788090455711824</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02833463019874338</v>
+        <v>-0.07833466080972085</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.03570954502726309</v>
+        <v>-0.02561280292283397</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02880483439505066</v>
+        <v>-0.05265931392601608</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>-0.05238370141082238</v>
+        <v>-0.004441379202312912</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.0401339795492115</v>
+        <v>0.01790064618443044</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.02261159381567601</v>
+        <v>0.001976255787946357</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.002042662283605723</v>
+        <v>-0.08435781944851761</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.04687159387082684</v>
+        <v>0.01704413023423723</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.01393865405999539</v>
+        <v>-0.00951319646508697</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.03082744049480357</v>
+        <v>-0.01093139978942059</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.01613051527553266</v>
+        <v>-0.01274460500271335</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.08625627097597444</v>
+        <v>0.1892557626111542</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.004107439294777082</v>
+        <v>0.06564834183851143</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.01101305892673377</v>
+        <v>-0.09383078846619897</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.01134234700133296</v>
+        <v>-0.02201478722963068</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01286371495507765</v>
+        <v>-0.003029485178821623</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.01484862645734886</v>
+        <v>0.005742702048809889</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.07683983148047369</v>
+        <v>0.02413736480419892</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>-0.001805681254676061</v>
+        <v>0.006648087060447061</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.06849904576177446</v>
+        <v>-0.02084438210919237</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.04127025163363851</v>
+        <v>-0.03202238591643858</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01397611354974493</v>
+        <v>0.001160596726800467</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.07524639885492634</v>
+        <v>-0.0008121110437027124</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.00537968218758289</v>
+        <v>0.01111634984323384</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/bs_er_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_er_rs_smae_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>878429754.5285385</v>
+        <v>391393741.1428061</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>8385.534638345242</v>
+        <v>2.865906029939651</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>7.784297545285385</v>
+        <v>2.913937411428061</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.3149434823124215</v>
+        <v>0.1875977016490131</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>8.784297545285385</v>
+        <v>3.913937411428061</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>214.0674760278833</v>
+        <v>100.3559308137611</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.7290071512455809</v>
+        <v>0.3161317401497879</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.243968449864104</v>
+        <v>0.1428505307012002</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.068449381470495</v>
+        <v>0.9740582568627776</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.171411379060634</v>
+        <v>0.09901789380248466</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.520715490325821</v>
+        <v>1.405248421101461</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.3096022945777489</v>
+        <v>0.1583905950115943</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02448380507695459</v>
+        <v>0.01419745383717015</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>2.751017229959372</v>
+        <v>0.459089164908942</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.1812526109241541</v>
+        <v>0.04875564360692963</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2408653655598117</v>
+        <v>0.1286844322260688</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.6334406453512201</v>
+        <v>0.3144424241417348</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.317921027134841</v>
+        <v>1.292139339680451</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.8894593525955901</v>
+        <v>0.3368830343838783</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.2391045534336427</v>
+        <v>0.2369808188278689</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2126513435592835</v>
+        <v>0.2007270151363113</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2277612593764688</v>
+        <v>0.1211943777300952</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.7770658756572443</v>
+        <v>0.3949906447135961</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.044186228501205</v>
+        <v>0.9672634195102587</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.64370825377091</v>
+        <v>1.536399978153051</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.347309848962228</v>
+        <v>1.340342957154529</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.02534952653716738</v>
+        <v>0.02373037052240955</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.3002748755624809</v>
+        <v>0.1476594921577111</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>1.029974999999999</v>
+        <v>0.5339690000000009</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.2885985388947604</v>
+        <v>-0.04130958274314122</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.61283511256571</v>
+        <v>3.91599656397215</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>3.920240020077884</v>
+        <v>2.84706576284771</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.332656313501397</v>
+        <v>0.3811615488970131</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>1.034446510314751</v>
+        <v>0.1472387760529447</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.753228098413009</v>
+        <v>3.101606570307361</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>4.753502020659956</v>
+        <v>3.97885992648767</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.1153322095592322</v>
+        <v>-0.03535396682524248</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>-0.0261282956686391</v>
+        <v>0.04649775382924969</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.5487290559449411</v>
+        <v>-0.3061289525848403</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.3756723822907947</v>
+        <v>-0.1418446588747465</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2339714722152126</v>
+        <v>0.1881051358381347</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.01250143487406249</v>
+        <v>-0.02761174470955016</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.494096920044173</v>
+        <v>1.623157913878859</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.2944953072629012</v>
+        <v>0.4914597978387299</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.01039746454073254</v>
+        <v>-0.02704516972881612</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.3180323274595381</v>
+        <v>0.2577696229377819</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>0.1498961623644822</v>
+        <v>-0.1895868737034743</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.7490264594292123</v>
+        <v>0.2575804579556851</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.6258369730123841</v>
+        <v>0.3173548142962218</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>0.1899560829025482</v>
+        <v>-0.04875197067319293</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>2.198462640313031</v>
+        <v>1.803501499624675</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.934087676008095</v>
+        <v>1.008430570502619</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="8">
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1765970573476976</v>
+        <v>0.2021007073580978</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.07891820401791755</v>
+        <v>-0.07752660000601061</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.744110833517249</v>
+        <v>1.198168451679684</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-0.3942761594684238</v>
+        <v>0.5057605912210387</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.03166702047302813</v>
+        <v>0.02174897361330906</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.01631331497599384</v>
+        <v>0.063712866707477</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.002810297900924925</v>
+        <v>0.2117507203116903</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.0643573404183851</v>
+        <v>0.3594970992054329</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.5576923076923077</v>
       </c>
     </row>
     <row r="10">
@@ -1317,19 +1317,19 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>-0.09205706078949241</v>
+        <v>0.02388082191171614</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>-0.01166321321494687</v>
+        <v>0.1104483956619861</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>-1.083024277708419</v>
+        <v>0.4449460659986644</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>-0.756333416773908</v>
+        <v>0.7285440486149098</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.03405599999999986</v>
+        <v>-0.01163799999999993</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.02418463182130659</v>
+        <v>0.01269676495049343</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02471431964864235</v>
+        <v>0.01993184209185395</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1064103259663329</v>
+        <v>0.05582836448840722</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.01289463806659763</v>
+        <v>0.007075169735418774</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.07734793156581654</v>
+        <v>0.03813243910528108</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02686445288953898</v>
+        <v>0.02158364037796723</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.2336716340898086</v>
+        <v>0.1436951547697434</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3434121367861871</v>
+        <v>0.1650854653790215</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.01751647187773264</v>
+        <v>-0.002065882687329434</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1179302021593274</v>
+        <v>0.0468258426966297</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1960962837148408</v>
+        <v>0.07733945051454505</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1982369389378211</v>
+        <v>0.07751897572775124</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2255759261838117</v>
+        <v>0.07187759038320785</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.04415787826063922</v>
+        <v>-0.009602017296268861</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0</v>
+        <v>0.003601865495921563</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.0444190129980877</v>
+        <v>0.006877159203460659</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.008139295465735774</v>
+        <v>0.00297311071166706</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1068543246385831</v>
+        <v>0.02407561182041773</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07371713102753952</v>
+        <v>0.02670962636479079</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01088068013217014</v>
+        <v>0.006766713282859271</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.0841041857699113</v>
+        <v>-0.02389860756261397</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.03496141670899622</v>
+        <v>0.002346682295097047</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.07874244329153535</v>
+        <v>0.01857995570411974</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.04074535999427709</v>
+        <v>-0.0158089943463865</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.02598247916107232</v>
+        <v>0.01001340703190579</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.0233492191878113</v>
+        <v>0.01066741248185821</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01324530771324528</v>
+        <v>-0.01725382340559189</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.01064734845692694</v>
+        <v>0.007815842948232676</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02924882859706168</v>
+        <v>-0.02671800961966375</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.005703321213602619</v>
+        <v>-0.006231498557541792</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.04472618264665695</v>
+        <v>0.03019786607586172</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02544456391814609</v>
+        <v>-0.02371173319499309</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.01952658667988816</v>
+        <v>0.001001097978428289</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02850635040604943</v>
+        <v>0.01733110046817821</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.008809248891786359</v>
+        <v>0.007940389898801747</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01539552714386017</v>
+        <v>0.01522082349755727</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.003922592689309612</v>
+        <v>-0.002584384569946918</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.0620325531714716</v>
+        <v>0.05846408782559198</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.02803620264140871</v>
+        <v>0.01638454011741652</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.03091175849188832</v>
+        <v>0.02118071676529287</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.005006296715225123</v>
+        <v>0.002778061073635207</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05182871281373935</v>
+        <v>0.04544885422787304</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.02217672914223157</v>
+        <v>-0.005881100241530546</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.01641215527747564</v>
+        <v>-0.001601912426868801</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.0360567441138846</v>
+        <v>0.02592170239893976</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05908290476539924</v>
+        <v>-0.04090336151320295</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.06459655012768883</v>
+        <v>0.01682456877572913</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02803969492513647</v>
+        <v>-0.0119850566508688</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1282540617698551</v>
+        <v>0.05673065105766972</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.0476732712396386</v>
+        <v>-0.03665448845395824</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01624786861626792</v>
+        <v>-0.02590440114539594</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.03380627340652387</v>
+        <v>-0.02347215074205178</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.005915429692561647</v>
+        <v>0.0003132050339966774</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.01222425559488127</v>
+        <v>0.0011573775399083</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.008195046723408317</v>
+        <v>-0.01449753519992281</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.004743817649897952</v>
+        <v>0.02985926937247507</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.03695241114856085</v>
+        <v>-0.02926147691073033</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.3000771771531765</v>
+        <v>0.2470150148578849</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.04270258449973041</v>
+        <v>0.03141091045904476</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02312990696941764</v>
+        <v>-0.01512850328674142</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01788390885081048</v>
+        <v>-0.008846496081897581</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.1074886181607122</v>
+        <v>0.00790406351312134</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03009793859113985</v>
+        <v>-0.02414922106400652</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.05310514324260063</v>
+        <v>0.02015833597862193</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.02223024318471256</v>
+        <v>0.02289412630413823</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.03421494894811472</v>
+        <v>0.007762288541928619</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03588883577175062</v>
+        <v>-0.02621938894399256</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.1258343268004916</v>
+        <v>0.07314029610718853</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.03271513556665195</v>
+        <v>0.03972451109072606</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.06283005712620282</v>
+        <v>-0.05046047197102266</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.05245550763733919</v>
+        <v>-0.02029464631799505</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.03685472695256586</v>
+        <v>0.007271096494505747</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03201789692370482</v>
+        <v>0.02296578383154135</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1282151940593035</v>
+        <v>0.1048807482367491</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1847023052711569</v>
+        <v>0.1193679353906103</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.0545996609909869</v>
+        <v>-0.01421143702919014</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07120126198241483</v>
+        <v>-0.04679100972898875</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02931863957163217</v>
+        <v>-0.02160627995535824</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05168672057937584</v>
+        <v>0.04043093363093542</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.06843629723480049</v>
+        <v>0.01957569639902257</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.027507919107155</v>
+        <v>0.0342500427661121</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.08842255085678374</v>
+        <v>-0.04417510742568853</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.0337696961666607</v>
+        <v>-0.02354638531918618</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.005423677304747576</v>
+        <v>-0.00675804210055897</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02956156961851542</v>
+        <v>0.02652610332604333</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.03268726731906813</v>
+        <v>-0.01901636655166117</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.09699676283902647</v>
+        <v>0.05698172515166267</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0665820887693398</v>
+        <v>0.02736784262121983</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.08217261347101157</v>
+        <v>-0.04913323018317362</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.01388041836971232</v>
+        <v>-0.009581429144049802</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.01859953737381881</v>
+        <v>0.007233121790892083</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02815950962623148</v>
+        <v>0.02740104141749744</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.05219471531879505</v>
+        <v>-0.04456830852113336</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.0119272005866109</v>
+        <v>0.01150870141391103</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.09119833574298852</v>
+        <v>-0.04197153841593815</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.07578136376335254</v>
+        <v>0.004657474718564814</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.02230739878824828</v>
+        <v>0.01266402699184166</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.09476045668415778</v>
+        <v>0.08016533125822289</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.0070376751608896</v>
+        <v>0.006301440725988483</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.002282853931200424</v>
+        <v>0.02030868122239382</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.02416924977014356</v>
+        <v>0.01242425754718646</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02122108848558879</v>
+        <v>0.01580816480856861</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.02013286832353867</v>
+        <v>-0.02767792823727622</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.007303439445869198</v>
+        <v>0.01175299005174857</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.02799110543528993</v>
+        <v>-0.009960391783481848</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.003899653364043631</v>
+        <v>-0.001787932649052304</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1024990678089999</v>
+        <v>0.02070471826371167</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.07173531657900889</v>
+        <v>-0.07931214483448801</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.006130274233876909</v>
+        <v>0.01618057155533048</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.07379196534924648</v>
+        <v>0.00399427506254546</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.0534839244302876</v>
+        <v>-0.05298229736695403</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.02172399359084731</v>
+        <v>-0.08382088916951058</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2004455690823119</v>
+        <v>0.04294903980849263</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.01982546367949189</v>
+        <v>0.04895356744620738</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.1336278546596594</v>
+        <v>0.1376374776747487</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.1589049486051182</v>
+        <v>0.109365494353562</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.05049527180417224</v>
+        <v>0.04475124237291284</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.004305154259457211</v>
+        <v>-0.07525467635284999</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.06857316119579204</v>
+        <v>0.01372791937659712</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.03515022984317728</v>
+        <v>-0.04157338363071472</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.1405700436918202</v>
+        <v>0.2107614710007781</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.01608330199161934</v>
+        <v>0.01909824688004136</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.03551668869680435</v>
+        <v>-0.09263148226451567</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.02180792876654691</v>
+        <v>0.002516321147569167</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.03141969003235356</v>
+        <v>0.003457338656454922</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.02905242038604694</v>
+        <v>0.01537055796526521</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.02815786014066435</v>
+        <v>-0.03257775034101673</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.04848332910532227</v>
+        <v>-0.03089964754385199</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.007552754380985793</v>
+        <v>-0.005002402419180263</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01968465658844343</v>
+        <v>-0.03145907516811253</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.01469308463187746</v>
+        <v>-0.0284572419552459</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.04105236610689933</v>
+        <v>0.04250528477807225</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.004140740356919803</v>
+        <v>-0.02240876923187918</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.009093906944606989</v>
+        <v>-0.002023193235088483</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.00784189666564461</v>
+        <v>0.006879715380990747</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.02008151811227599</v>
+        <v>0.01987087731294301</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.01207385068392131</v>
+        <v>-0.01848262432297476</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01200883870415059</v>
+        <v>0.008253539376143371</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.008714035948705678</v>
+        <v>-0.003007907712772262</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.008736693165191767</v>
+        <v>-0.00140265347615709</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.001387195961455756</v>
+        <v>-0.0009179784789115075</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.007221676516400821</v>
+        <v>0.001071355722044753</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.02188788269778474</v>
+        <v>-0.006104186401422851</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.02350864182881651</v>
+        <v>-0.008980344752031799</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.02304430550471337</v>
+        <v>-0.03290920893013882</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.003840796278980041</v>
+        <v>0.01512426714744208</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.09855275488439053</v>
+        <v>0.04809241958531296</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.007296914222700401</v>
+        <v>0.02323227234241476</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1149132814276623</v>
+        <v>0.0431980523764246</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.02971673752727511</v>
+        <v>0.04117396259569062</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02103753954112753</v>
+        <v>-0.03114143262943736</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.01471271993255363</v>
+        <v>0.02534593160512544</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.02695050543759347</v>
+        <v>-0.03298044844316006</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.06785659871071403</v>
+        <v>0.08077892204324044</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01454235607662679</v>
+        <v>-0.02219226551070375</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.04806975177243267</v>
+        <v>0.08341384822354114</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.0958293387969934</v>
+        <v>-0.08891987392715073</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1382546169404624</v>
+        <v>0.08953377952716024</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.01130901350227065</v>
+        <v>-0.02512225643071764</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.03323618994228417</v>
+        <v>-0.02718010962997308</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.05246571806640343</v>
+        <v>0.06131401589986596</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.05102242230873721</v>
+        <v>-0.04600352932852891</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.0328797426086902</v>
+        <v>-0.02727671791096098</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.06155918586498643</v>
+        <v>0.02756431755330602</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01875744466880036</v>
+        <v>0.01913408531064187</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.01468754702931552</v>
+        <v>-0.01166489607480281</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02124624893828964</v>
+        <v>-0.01154502306211436</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.0527831966033927</v>
+        <v>0.002841889140264398</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.01028615236314456</v>
+        <v>0.06329317481932617</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.04526813503756422</v>
+        <v>-0.038526578388967</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.01062092203119613</v>
+        <v>0.04003277454272558</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.0241532325593028</v>
+        <v>-0.05264226645054237</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.04436457361988522</v>
+        <v>0.03489396337381523</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.04758657132142785</v>
+        <v>0.02565828023383454</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.04788090455711824</v>
+        <v>-0.01350879073367084</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.07833466080972085</v>
+        <v>-0.04073032853973302</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02561280292283397</v>
+        <v>-0.0006418887377352966</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.05265931392601608</v>
+        <v>-0.04520011406079572</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>-0.004441379202312912</v>
+        <v>-0.01543925143800717</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.01790064618443044</v>
+        <v>-0.0295034037413614</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.001976255787946357</v>
+        <v>0.007253335394334481</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.08435781944851761</v>
+        <v>-0.04264100135707971</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01704413023423723</v>
+        <v>0.0269039242246607</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.00951319646508697</v>
+        <v>-0.02213103505783065</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.01093139978942059</v>
+        <v>-0.01401076692297876</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01274460500271335</v>
+        <v>0.001021813156758533</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.1892557626111542</v>
+        <v>0.1455740159276604</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.06564834183851143</v>
+        <v>0.02586079488929016</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.09383078846619897</v>
+        <v>-0.06167352871419263</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02201478722963068</v>
+        <v>-0.01832103322245526</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.003029485178821623</v>
+        <v>0.02309854670369504</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.005742702048809889</v>
+        <v>0.004921585868091771</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.02413736480419892</v>
+        <v>0.03241071324099121</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.006648087060447061</v>
+        <v>0.006206971177201481</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.02084438210919237</v>
+        <v>0.03106907582572771</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.03202238591643858</v>
+        <v>0.04997816797955923</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.001160596726800467</v>
+        <v>-0.008413202026691713</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.0008121110437027124</v>
+        <v>-0.01445831175784718</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01111634984323384</v>
+        <v>0.01038011540833272</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/bs_er_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_er_rs_smae_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>391393741.1428061</v>
+        <v>422000426.2377367</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>2.865906029939651</v>
+        <v>2543.409136682749</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>2.913937411428061</v>
+        <v>3.220004262377367</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1875977016490131</v>
+        <v>0.1989178441621167</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>3.913937411428061</v>
+        <v>4.220004262377367</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>100.3559308137611</v>
+        <v>92.87629547959408</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3161317401497879</v>
+        <v>0.3983763169254409</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1428505307012002</v>
+        <v>0.1523351272738547</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9740582568627776</v>
+        <v>0.9849469768073608</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.09901789380248466</v>
+        <v>0.106218691660603</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.405248421101461</v>
+        <v>1.412576456405356</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.1583905950115943</v>
+        <v>0.1381157570666076</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01419745383717015</v>
+        <v>0.01516179384831472</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.459089164908942</v>
+        <v>0.5861737036583127</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.04875564360692963</v>
+        <v>0.05984948703787629</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1286844322260688</v>
+        <v>0.1390834389987743</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3144424241417348</v>
+        <v>0.3338188580940106</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.292139339680451</v>
+        <v>1.282517644838638</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.3368830343838783</v>
+        <v>0.3877077448765273</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.2369808188278689</v>
+        <v>0.2140347517807523</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2007270151363113</v>
+        <v>0.2025206128140641</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1211943777300952</v>
+        <v>0.1312445268782126</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.3949906447135961</v>
+        <v>0.4165041350532929</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9672634195102587</v>
+        <v>0.9843964520954421</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.536399978153051</v>
+        <v>1.556262341414562</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.340342957154529</v>
+        <v>1.340535635681887</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.02373037052240955</v>
+        <v>0.02386933801891241</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1476594921577111</v>
+        <v>0.1370143413307383</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.5339690000000009</v>
+        <v>0.6046870000000003</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>-0.04130958274314122</v>
+        <v>0.005394140849745716</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.91599656397215</v>
+        <v>3.805340691879033</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>2.84706576284771</v>
+        <v>2.829982633467839</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.3811615488970131</v>
+        <v>0.4423541787276875</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.1472387760529447</v>
+        <v>0.2004058210096689</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>3.101606570307361</v>
+        <v>3.062178918586952</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.97885992648767</v>
+        <v>3.972390061374407</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.5192307692307693</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.03535396682524248</v>
+        <v>-0.06683136554466572</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.04649775382924969</v>
+        <v>0.01559571087472446</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3061289525848403</v>
+        <v>-0.4877335094702167</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.1418446588747465</v>
+        <v>-0.3302782613998295</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1881051358381347</v>
+        <v>0.2328320934289687</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>-0.02761174470955016</v>
+        <v>0.009216240223551483</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.623157913878859</v>
+        <v>1.827736893117988</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.4914597978387299</v>
+        <v>0.8644981237184456</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5098039215686274</v>
+        <v>0.4901960784313725</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.02704516972881612</v>
+        <v>-0.05223408350468118</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2577696229377819</v>
+        <v>0.2263793672368843</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.1895868737034743</v>
+        <v>-0.3724262851053748</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.2575804579556851</v>
+        <v>0.05670278855167255</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.5490196078431373</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3173548142962218</v>
+        <v>0.2788579195130843</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.04875197067319293</v>
+        <v>-0.07670192613672207</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.803501499624675</v>
+        <v>1.609824791449572</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.008430570502619</v>
+        <v>0.6896375358380759</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.2021007073580978</v>
+        <v>0.269574642193955</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.07752660000601061</v>
+        <v>-0.0241853700049366</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.198168451679684</v>
+        <v>1.427885097788559</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.5057605912210387</v>
+        <v>0.912265477505093</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.02174897361330906</v>
+        <v>-0.01174941352995852</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.063712866707477</v>
+        <v>0.0285069859290455</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.2117507203116903</v>
+        <v>0.02897219202628154</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.3594970992054329</v>
+        <v>0.1304108693837535</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.5576923076923077</v>
+        <v>0.5192307692307693</v>
       </c>
     </row>
     <row r="10">
@@ -1317,19 +1317,19 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.02388082191171614</v>
+        <v>0.04216826111674046</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1104483956619861</v>
+        <v>0.1283395665511652</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.4449460659986644</v>
+        <v>0.8188552702865469</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.7285440486149098</v>
+        <v>1.05362873656476</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -1436,28 +1436,28 @@
         <v>-0.01163799999999993</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01269676495049343</v>
+        <v>0.007993022799338334</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.01993184209185395</v>
+        <v>0.01877919663702943</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05582836448840722</v>
+        <v>0.08102793084728543</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.007075169735418774</v>
+        <v>-0.002880938232538655</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.03813243910528108</v>
+        <v>0.04526571430399495</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02158364037796723</v>
+        <v>0.02337059079692283</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1436951547697434</v>
+        <v>0.1597974878236361</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.1650854653790215</v>
+        <v>0.1822544722617001</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.002065882687329434</v>
+        <v>-0.003801987552712771</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.0468258426966297</v>
+        <v>0.04396885747779655</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.07733945051454505</v>
+        <v>0.09510544235214868</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.07751897572775124</v>
+        <v>0.09122928354398341</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.07187759038320785</v>
+        <v>0.08486188044765086</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.009602017296268861</v>
+        <v>0.002462140032769344</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003601865495921563</v>
+        <v>0.003280015786862656</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.006877159203460659</v>
+        <v>0.01142368173617103</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.00297311071166706</v>
+        <v>0.003508622068423728</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.02407561182041773</v>
+        <v>0.02742750338904631</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.02670962636479079</v>
+        <v>0.02766748253319951</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.006766713282859271</v>
+        <v>-0.007468875753448456</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.02389860756261397</v>
+        <v>-0.04079321606531272</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.002346682295097047</v>
+        <v>0.002060258275491167</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.01857995570411974</v>
+        <v>0.028720033946394</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.0158089943463865</v>
+        <v>-0.02648545362467636</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.01001340703190579</v>
+        <v>0.0001032333122232831</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01066741248185821</v>
+        <v>0.01890724905786878</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01725382340559189</v>
+        <v>-0.01253919047606455</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.007815842948232676</v>
+        <v>0.003947625492115803</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02671800961966375</v>
+        <v>-0.02686892634482374</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.006231498557541792</v>
+        <v>-0.0009505850983683173</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03019786607586172</v>
+        <v>0.01321300021753613</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02371173319499309</v>
+        <v>-0.02580715000947187</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.001001097978428289</v>
+        <v>-0.0003569702256276397</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01733110046817821</v>
+        <v>0.03059600115419947</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.007940389898801747</v>
+        <v>0.009221025988570108</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01522082349755727</v>
+        <v>0.01469908489746841</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002584384569946918</v>
+        <v>-0.002828856796914581</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.05846408782559198</v>
+        <v>0.05606032533041594</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01638454011741652</v>
+        <v>0.02395405222716818</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02118071676529287</v>
+        <v>0.02235545205394662</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.002778061073635207</v>
+        <v>0.002599121099775781</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04544885422787304</v>
+        <v>0.05179128158784563</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.005881100241530546</v>
+        <v>-0.006652019464169157</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.001601912426868801</v>
+        <v>0.0119239219122973</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02592170239893976</v>
+        <v>0.02711583058708711</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.04090336151320295</v>
+        <v>-0.04717749322011178</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01682456877572913</v>
+        <v>0.01056448827660361</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.0119850566508688</v>
+        <v>-0.01477312858135638</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.05673065105766972</v>
+        <v>0.06470546065061566</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.03665448845395824</v>
+        <v>-0.04035829635469923</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02590440114539594</v>
+        <v>-0.03384259049688454</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.02347215074205178</v>
+        <v>-0.02969148127874166</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.0003132050339966774</v>
+        <v>3.903169212393642e-05</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.0011573775399083</v>
+        <v>0.00091982438838345</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01449753519992281</v>
+        <v>-0.007803282194519201</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.02985926937247507</v>
+        <v>0.02248988303704946</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.02926147691073033</v>
+        <v>-0.02954858854670261</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2470150148578849</v>
+        <v>0.2465315405439614</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.03141091045904476</v>
+        <v>0.03138746407856541</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.01512850328674142</v>
+        <v>-0.002563309390903656</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.008846496081897581</v>
+        <v>-0.009469549222073104</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.00790406351312134</v>
+        <v>-0.00712344813464405</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02414922106400652</v>
+        <v>-0.02724841866770156</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02015833597862193</v>
+        <v>0.02027804006681921</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.02289412630413823</v>
+        <v>0.01941407105041693</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.007762288541928619</v>
+        <v>0.008438161006346201</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02621938894399256</v>
+        <v>-0.03737903157990952</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.07314029610718853</v>
+        <v>0.06389620064973456</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.03972451109072606</v>
+        <v>0.03703038101839318</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.05046047197102266</v>
+        <v>-0.04975577312416757</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.02029464631799505</v>
+        <v>-0.02136801451156023</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.007271096494505747</v>
+        <v>0.01091728802471925</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02296578383154135</v>
+        <v>0.02375998845658289</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1048807482367491</v>
+        <v>0.120465735733311</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1193679353906103</v>
+        <v>0.1376238959740677</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01421143702919014</v>
+        <v>-0.01292851287152141</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.04679100972898875</v>
+        <v>-0.05406899866586201</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02160627995535824</v>
+        <v>-0.01428004273709327</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.04043093363093542</v>
+        <v>0.05177104506120367</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.01957569639902257</v>
+        <v>0.03090400310373531</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.0342500427661121</v>
+        <v>0.02633355428667339</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.04417510742568853</v>
+        <v>-0.04264005260035231</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02354638531918618</v>
+        <v>-0.02524701433017185</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.00675804210055897</v>
+        <v>0.01070218994953787</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02652610332604333</v>
+        <v>0.02416285458418033</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01901636655166117</v>
+        <v>-0.01979260366493407</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.05698172515166267</v>
+        <v>0.0413873417696089</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.02736784262121983</v>
+        <v>0.0151397493059322</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.04913323018317362</v>
+        <v>-0.0599634717602211</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.009581429144049802</v>
+        <v>-0.01111768465472973</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.007233121790892083</v>
+        <v>0.007137075968573159</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02740104141749744</v>
+        <v>0.02750151362362807</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.04456830852113336</v>
+        <v>-0.04478207590830252</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01150870141391103</v>
+        <v>0.0001577075017060725</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.04197153841593815</v>
+        <v>0.0003867101974142084</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.004657474718564814</v>
+        <v>0.001206451842959755</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.01266402699184166</v>
+        <v>0.001132476233613566</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.08016533125822289</v>
+        <v>0.0805739397687546</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.006301440725988483</v>
+        <v>0.006767763231349422</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1892,28 +1892,28 @@
         <v>0.02030868122239382</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01242425754718646</v>
+        <v>0.007718214722191696</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.01580816480856861</v>
+        <v>0.01474013054563938</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>-0.02767792823727622</v>
+        <v>-0.003857631567241615</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.01175299005174857</v>
+        <v>0.002224215499540438</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.009960391783481848</v>
+        <v>-0.00315495521643705</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.001787932649052304</v>
+        <v>0.0001368035488427122</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.02070471826371167</v>
+        <v>0.03518612692433254</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.07931214483448801</v>
+        <v>-0.06476874345537009</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.01618057155533048</v>
+        <v>0.01434382653384381</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.00399427506254546</v>
+        <v>0.001192021870778603</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.05298229736695403</v>
+        <v>-0.03717962268205943</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.08382088916951058</v>
+        <v>-0.07183014163592905</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.04294903980849263</v>
+        <v>0.05635924192748676</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.04895356744620738</v>
+        <v>0.06171981412685357</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.1376374776747487</v>
+        <v>0.1372791702852063</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.109365494353562</v>
+        <v>0.1148934251396272</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.04475124237291284</v>
+        <v>0.0453177776422562</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.07525467635284999</v>
+        <v>-0.07193600375546916</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.01372791937659712</v>
+        <v>0.01478215487299872</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04157338363071472</v>
+        <v>-0.05521778901630081</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2107614710007781</v>
+        <v>0.1910679097295034</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.01909824688004136</v>
+        <v>0.0188055913027263</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.09263148226451567</v>
+        <v>-0.08280068239792793</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.002516321147569167</v>
+        <v>-0.007914304752624113</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.003457338656454922</v>
+        <v>-0.006724242656074297</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01537055796526521</v>
+        <v>0.02431385420423071</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.03257775034101673</v>
+        <v>-0.02752242813169548</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03089964754385199</v>
+        <v>-0.03457298586358681</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.005002402419180263</v>
+        <v>-0.005222584307574496</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.03145907516811253</v>
+        <v>-0.0263833506352612</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.0284572419552459</v>
+        <v>-0.04464706715114763</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.04250528477807225</v>
+        <v>0.04063979630585512</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.02240876923187918</v>
+        <v>-0.02374006068643508</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.002023193235088483</v>
+        <v>0.01114752104820105</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.006879715380990747</v>
+        <v>0.008250849211659972</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01987087731294301</v>
+        <v>0.01935158370137713</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.01848262432297476</v>
+        <v>-0.01872321748212225</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.008253539376143371</v>
+        <v>0.005952520761614455</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.003007907712772262</v>
+        <v>0.004395332016297271</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.00140265347615709</v>
+        <v>-0.0001767268340849837</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.0009179784789115075</v>
+        <v>-0.001057405540364487</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.001071355722044753</v>
+        <v>0.007180412422863158</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.006104186401422851</v>
+        <v>-0.006829821462379648</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.008980344752031799</v>
+        <v>0.004253224276683065</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.03290920893013882</v>
+        <v>-0.03172259364062813</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.01512426714744208</v>
+        <v>0.008583661436709189</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.04809241958531296</v>
+        <v>0.04177493594724102</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02323227234241476</v>
+        <v>0.02038972948386553</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.0431980523764246</v>
+        <v>0.05125958557139554</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.04117396259569062</v>
+        <v>0.03738450729233223</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.03114143262943736</v>
+        <v>-0.03900538987027313</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.02534593160512544</v>
+        <v>0.0189448595867352</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.03298044844316006</v>
+        <v>-0.03324337393369103</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.08077892204324044</v>
+        <v>0.08053001905824542</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.02219226551070375</v>
+        <v>-0.01549123741618186</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.08341384822354114</v>
+        <v>0.07566783909089336</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.08891987392715073</v>
+        <v>-0.08919942347125065</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.08953377952716024</v>
+        <v>0.08914629660170981</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.02512225643071764</v>
+        <v>-0.02507849179815214</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02718010962997308</v>
+        <v>-0.01495269426626689</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06131401589986596</v>
+        <v>0.0607047329476833</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.04600352932852891</v>
+        <v>-0.06038461730129707</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02727671791096098</v>
+        <v>-0.0302153582870115</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02756431755330602</v>
+        <v>0.02766611683232556</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01913408531064187</v>
+        <v>0.01572599012620324</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01166489607480281</v>
+        <v>-0.01099973431515067</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01154502306211436</v>
+        <v>-0.02299378898464755</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.002841889140264398</v>
+        <v>-0.005823686152621299</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.06329317481932617</v>
+        <v>0.06060171458571517</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.038526578388967</v>
+        <v>-0.03760124035810619</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.04003277454272558</v>
+        <v>0.03900366236613695</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.05264226645054237</v>
+        <v>-0.0492355704385633</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03489396337381523</v>
+        <v>0.03586230130691592</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.02565828023383454</v>
+        <v>0.04029447190487345</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.01350879073367084</v>
+        <v>0.002828630571799495</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.04073032853973302</v>
+        <v>-0.03948636011240114</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.0006418887377352966</v>
+        <v>-0.008088060941540465</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04520011406079572</v>
+        <v>-0.0379333862234954</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>-0.01543925143800717</v>
+        <v>-0.004361895214495148</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.0295034037413614</v>
+        <v>-0.01870046854730045</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.007253335394334481</v>
+        <v>-0.0009508069711446909</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.04264100135707971</v>
+        <v>-0.04077024031573817</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.0269039242246607</v>
+        <v>0.02538079815579164</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.02213103505783065</v>
+        <v>-0.005148761922544653</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.01401076692297876</v>
+        <v>-0.01625726577463549</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.001021813156758533</v>
+        <v>0.000274224578732607</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.1455740159276604</v>
+        <v>0.1285435418830938</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.02586079488929016</v>
+        <v>0.0133078046984072</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.06167352871419263</v>
+        <v>-0.07234056222037899</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.01832103322245526</v>
+        <v>-0.01974218156298191</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.02309854670369504</v>
+        <v>0.02302698593943986</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.004921585868091771</v>
+        <v>0.005027876714813306</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.03241071324099121</v>
+        <v>0.03218183624432958</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.006206971177201481</v>
+        <v>-0.005246621643664962</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.03106907582572771</v>
+        <v>0.07597400368563578</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.04997816797955923</v>
+        <v>0.04569312527883684</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.008413202026691713</v>
+        <v>-0.01988090913445029</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.01445831175784718</v>
+        <v>-0.01417888170194748</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01038011540833272</v>
+        <v>0.01084643791369366</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/bs_er_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_er_rs_smae_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>422000426.2377367</v>
+        <v>413492077.5886057</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>2543.409136682749</v>
+        <v>85.91850575059652</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>3.220004262377367</v>
+        <v>3.134920775886057</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1989178441621167</v>
+        <v>0.1958449292214759</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>4.220004262377367</v>
+        <v>4.134920775886057</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>92.87629547959408</v>
+        <v>99.81534602984412</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3983763169254409</v>
+        <v>0.2921788561694521</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1523351272738547</v>
+        <v>0.1446882056453889</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9849469768073608</v>
+        <v>1.011405083572772</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.106218691660603</v>
+        <v>0.1011643925870889</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.412576456405356</v>
+        <v>1.446540457372799</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.1381157570666076</v>
+        <v>0.1392389507706473</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01516179384831472</v>
+        <v>0.01436742685532842</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.5861737036583127</v>
+        <v>0.5490227655337294</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.05984948703787629</v>
+        <v>0.05668923447408858</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1390834389987743</v>
+        <v>0.1363836647259014</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3338188580940106</v>
+        <v>0.3259697049379329</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.282517644838638</v>
+        <v>1.344754909604952</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.3877077448765273</v>
+        <v>0.3760343270564293</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.2140347517807523</v>
+        <v>0.2354334108021499</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2025206128140641</v>
+        <v>0.1989583619230258</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1312445268782126</v>
+        <v>0.1289390922753209</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4165041350532929</v>
+        <v>0.4013653679880999</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9843964520954421</v>
+        <v>1.014392493871142</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.556262341414562</v>
+        <v>1.573378654002676</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.340535635681887</v>
+        <v>1.41741853273215</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.02386933801891241</v>
+        <v>0.02351898931010842</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1370143413307383</v>
+        <v>0.1342629618253698</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.6046870000000003</v>
+        <v>0.5256970000000012</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.005394140849745716</v>
+        <v>-0.04645166716674</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.805340691879033</v>
+        <v>3.860014790025654</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>2.829982633467839</v>
+        <v>2.671828684084602</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.4473684210526316</v>
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.4423541787276875</v>
+        <v>0.3586223214701205</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.2004058210096689</v>
+        <v>0.1276477926617642</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>3.062178918586952</v>
+        <v>2.996653892395871</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.972390061374407</v>
+        <v>3.785942924172023</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.06683136554466572</v>
+        <v>-0.04005989832336862</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.01559571087472446</v>
+        <v>0.04314503958291706</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.4877335094702167</v>
+        <v>-0.3241137016061338</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.3302782613998295</v>
+        <v>-0.1424949650353223</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2328320934289687</v>
+        <v>0.1770467301367767</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.009216240223551483</v>
+        <v>-0.03638868252250235</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.827736893117988</v>
+        <v>1.466282305555075</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.8644981237184456</v>
+        <v>0.2779578586952727</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.4509803921568628</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.05223408350468118</v>
+        <v>-0.00920884147838566</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2263793672368843</v>
+        <v>0.2825146520861316</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.3724262851053748</v>
+        <v>-0.02129151833284943</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.05670278855167255</v>
+        <v>0.5009484523141031</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.2788579195130843</v>
+        <v>0.3830893731558615</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07670192613672207</v>
+        <v>-0.0001345147796664846</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.609824791449572</v>
+        <v>2.064042372737972</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.6896375358380759</v>
+        <v>1.466772366341879</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.269574642193955</v>
+        <v>0.1987250969699628</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.0241853700049366</v>
+        <v>-0.07977614994532574</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.427885097788559</v>
+        <v>1.189237025710562</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.912265477505093</v>
+        <v>0.473865947047077</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.01174941352995852</v>
+        <v>0.06334794701852524</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.0285069859290455</v>
+        <v>0.1072860625726386</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.02897219202628154</v>
+        <v>0.4300874329511726</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.1304108693837535</v>
+        <v>0.6513286313558074</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.04216826111674046</v>
+        <v>0.01072958226127132</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1283395665511652</v>
+        <v>0.09682630243824353</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.8188552702865469</v>
+        <v>0.235365296891706</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.05362873656476</v>
+        <v>0.5332421021759186</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.64</v>
@@ -1436,28 +1436,28 @@
         <v>-0.01163799999999993</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.007993022799338334</v>
+        <v>0.005737776239879366</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.01877919663702943</v>
+        <v>0.02106066901199477</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.08102793084728543</v>
+        <v>0.05612886317598176</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.002880938232538655</v>
+        <v>0.007097432031920148</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.04526571430399495</v>
+        <v>0.03830873191946638</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02337059079692283</v>
+        <v>0.02166560650762195</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1597974878236361</v>
+        <v>0.1424938830897335</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.1822544722617001</v>
+        <v>0.1661069362748091</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.003801987552712771</v>
+        <v>0.00872715880020758</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.04396885747779655</v>
+        <v>0.03552473924829713</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.09510544235214868</v>
+        <v>0.07771109096214102</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.09122928354398341</v>
+        <v>0.07786346921047094</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.08486188044765086</v>
+        <v>0.07219873978063562</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.002462140032769344</v>
+        <v>-0.009657296702543783</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003280015786862656</v>
+        <v>0.003565551149558699</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01142368173617103</v>
+        <v>0.00338459136521152</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.003508622068423728</v>
+        <v>0.00119579214535781</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.02742750338904631</v>
+        <v>0.02206570969539001</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.02766748253319951</v>
+        <v>0.02201884141398525</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.007468875753448456</v>
+        <v>0.001308125352029288</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.04079321606531272</v>
+        <v>-0.03211044139313801</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.002060258275491167</v>
+        <v>-0.009882439492674533</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.028720033946394</v>
+        <v>0.02236290806908126</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.02648545362467636</v>
+        <v>-0.0154228556853625</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.0001032333122232831</v>
+        <v>0.004591010022204634</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01890724905786878</v>
+        <v>0.01591943208180258</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01253919047606455</v>
+        <v>-0.01802012820977728</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.003947625492115803</v>
+        <v>0.008205319110714093</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02686892634482374</v>
+        <v>-0.02788673655096785</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.0009505850983683173</v>
+        <v>0.003735148634578467</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.01321300021753613</v>
+        <v>0.03479337581117048</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02580715000947187</v>
+        <v>-0.02459053359555941</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.0003569702256276397</v>
+        <v>0.006712205398711868</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.03059600115419947</v>
+        <v>0.02158585118342793</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009221025988570108</v>
+        <v>0.009861200427677019</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01469908489746841</v>
+        <v>0.006997054075711384</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002828856796914581</v>
+        <v>-0.004896580754659374</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.05606032533041594</v>
+        <v>0.05066798528529803</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.02395405222716818</v>
+        <v>0.01699022879151357</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02235545205394662</v>
+        <v>0.02150810734349662</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.002599121099775781</v>
+        <v>0.002827451988396179</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05179128158784563</v>
+        <v>0.04605047800134998</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.006652019464169157</v>
+        <v>-0.005040246905041013</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.0119239219122973</v>
+        <v>-0.007233921522167286</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02711583058708711</v>
+        <v>0.02613726075393119</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.04717749322011178</v>
+        <v>-0.04163128148518314</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01056448827660361</v>
+        <v>0.0299054383786459</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.01477312858135638</v>
+        <v>-0.00834647196202587</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.06470546065061566</v>
+        <v>0.05697643326371438</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.04035829635469923</v>
+        <v>-0.03474544607015306</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.03384259049688454</v>
+        <v>-0.008407156895956058</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.02969148127874166</v>
+        <v>-0.02208755182153843</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>3.903169212393642e-05</v>
+        <v>-0.01774893672241484</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.00091982438838345</v>
+        <v>0.01151215346738188</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.007803282194519201</v>
+        <v>-0.003084444229165983</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.02248988303704946</v>
+        <v>0.006686431398680304</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.02954858854670261</v>
+        <v>-0.01938825155815738</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2465315405439614</v>
+        <v>0.2479549891058725</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.03138746407856541</v>
+        <v>0.03133001311022166</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.002563309390903656</v>
+        <v>-0.01367243718200939</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.009469549222073104</v>
+        <v>-0.008814703935616897</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.00712344813464405</v>
+        <v>0.02792647332578202</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02724841866770156</v>
+        <v>-0.02353328510906372</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02027804006681921</v>
+        <v>0.0164711736193992</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01941407105041693</v>
+        <v>0.01961135356679078</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.008438161006346201</v>
+        <v>0.02695969894146688</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03737903157990952</v>
+        <v>-0.0327772652408187</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.06389620064973456</v>
+        <v>0.08480438532182633</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.03703038101839318</v>
+        <v>0.03678642679122235</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.04975577312416757</v>
+        <v>-0.04654935365650237</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.02136801451156023</v>
+        <v>-0.02588829783377966</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01091728802471925</v>
+        <v>0.01805351437647973</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02375998845658289</v>
+        <v>0.02058017454627281</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.120465735733311</v>
+        <v>0.1032602416444808</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1376238959740677</v>
+        <v>0.1190820564672053</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01292851287152141</v>
+        <v>-0.02473360616971754</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.05406899866586201</v>
+        <v>-0.04699819059668897</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01428004273709327</v>
+        <v>-0.02345260236037638</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05177104506120367</v>
+        <v>0.04522815280627079</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.03090400310373531</v>
+        <v>0.0229261276016457</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02633355428667339</v>
+        <v>0.02549861500524964</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.04264005260035231</v>
+        <v>-0.06155586443784744</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02524701433017185</v>
+        <v>-0.01937640190733669</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.01070218994953787</v>
+        <v>0.0228971387321204</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02416285458418033</v>
+        <v>0.02431139130486248</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01979260366493407</v>
+        <v>-0.01939210284133819</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.0413873417696089</v>
+        <v>0.08413660846378845</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0151397493059322</v>
+        <v>0.03076261180790341</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.0599634717602211</v>
+        <v>-0.04833595962711967</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.01111768465472973</v>
+        <v>-0.006987983330472236</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.007137075968573159</v>
+        <v>0.01132829515097789</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02750151362362807</v>
+        <v>0.02682684160010229</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.04478207590830252</v>
+        <v>-0.04335489434679674</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.0001577075017060725</v>
+        <v>0.01165098654456398</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.0003867101974142084</v>
+        <v>-0.04040353015640785</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.001206451842959755</v>
+        <v>-0.01806679669096045</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.001132476233613566</v>
+        <v>0.01963545753031126</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.0805739397687546</v>
+        <v>0.08023734575706754</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.006767763231349422</v>
+        <v>0.006279694639991895</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1892,28 +1892,28 @@
         <v>0.02030868122239382</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.007718214722191696</v>
+        <v>0.005510542496984128</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.01474013054563938</v>
+        <v>0.01683073674696689</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>-0.003857631567241615</v>
+        <v>-0.02739235544509078</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.002224215499540438</v>
+        <v>0.01178154247183438</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.00315495521643705</v>
+        <v>-0.009784531195559998</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.0001368035488427122</v>
+        <v>-0.001699623564209052</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.03518612692433254</v>
+        <v>0.01964108944769416</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.06476874345537009</v>
+        <v>-0.07846224141128977</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.01434382653384381</v>
+        <v>0.02738475063908297</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.001192021870778603</v>
+        <v>-0.006896165163036372</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.03717962268205943</v>
+        <v>-0.05264956476647176</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.07183014163592905</v>
+        <v>-0.08351900373812915</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.05635924192748676</v>
+        <v>0.04327619769216984</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.06171981412685357</v>
+        <v>0.04891120846617381</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.1372791702852063</v>
+        <v>0.1375970142658529</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.1148934251396272</v>
+        <v>0.105634800258062</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.0453177776422562</v>
+        <v>0.04295431292725782</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.07193600375546916</v>
+        <v>-0.07709821038372</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.01478215487299872</v>
+        <v>0.008320691424260174</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.05521778901630081</v>
+        <v>-0.04708545388095309</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.1910679097295034</v>
+        <v>0.2012070706959892</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.0188055913027263</v>
+        <v>0.00742985056421186</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.08280068239792793</v>
+        <v>-0.08924200672759419</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.007914304752624113</v>
+        <v>0.002919500653787432</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.006724242656074297</v>
+        <v>-0.001908903430570152</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.02431385420423071</v>
+        <v>0.02068638149697644</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.02752242813169548</v>
+        <v>-0.0332805520138314</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03457298586358681</v>
+        <v>-0.03050911098336251</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.005222584307574496</v>
+        <v>-0.006180165991686692</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.0263833506352612</v>
+        <v>-0.02162056880778063</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.04464706715114763</v>
+        <v>-0.0240588916342902</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.04063979630585512</v>
+        <v>0.04159205909098906</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.02374006068643508</v>
+        <v>-0.01681164434390892</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01114752104820105</v>
+        <v>0.002251312993828858</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.008250849211659972</v>
+        <v>0.008890020476877813</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01935158370137713</v>
+        <v>0.01162599648216012</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.01872321748212225</v>
+        <v>-0.0207502670418438</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.005952520761614455</v>
+        <v>0.0008589092993083192</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.004395332016297271</v>
+        <v>-0.002415095852185245</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.0001767268340849837</v>
+        <v>-0.001061628773180057</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.001057405540364487</v>
+        <v>-0.0008650646871258827</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.007180412422863158</v>
+        <v>0.001652196991832833</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.006829821462379648</v>
+        <v>-0.005260711026741305</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.004253224276683065</v>
+        <v>-0.01458430525272469</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.03172259364062813</v>
+        <v>-0.03269252433266057</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.008583661436709189</v>
+        <v>0.01436229866458416</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.04177493594724102</v>
+        <v>0.06170822927457231</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02038972948386553</v>
+        <v>0.02698424683920342</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.05125958557139554</v>
+        <v>0.04339674454548503</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.03738450729233223</v>
+        <v>0.04318034527877557</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.03900538987027313</v>
+        <v>-0.01346667067439322</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.0189448595867352</v>
+        <v>0.02676812542741036</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.03324337393369103</v>
+        <v>-0.05025004435900537</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.08053001905824542</v>
+        <v>0.09228155229942514</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01549123741618186</v>
+        <v>-0.01073652706748185</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.07566783909089336</v>
+        <v>0.05946559628123804</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.08919942347125065</v>
+        <v>-0.07946583164019416</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.08914629660170981</v>
+        <v>0.09036787888443398</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.02507849179815214</v>
+        <v>-0.02519952768694944</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.01495269426626689</v>
+        <v>-0.02573840692061935</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.0607047329476833</v>
+        <v>0.06134631453402895</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.06038461730129707</v>
+        <v>-0.02634191485461235</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.0302153582870115</v>
+        <v>-0.02669423020116546</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02766611683232556</v>
+        <v>0.02383188280992288</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01572599012620324</v>
+        <v>0.01592608373072935</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01099973431515067</v>
+        <v>0.007309566757521146</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02299378898464755</v>
+        <v>-0.01814763772990047</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.005823686152621299</v>
+        <v>0.01373514738123016</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.06060171458571517</v>
+        <v>0.06033115612441775</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.03760124035810619</v>
+        <v>-0.0345615291263659</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.03900366236613695</v>
+        <v>0.03447902562490346</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.0492355704385633</v>
+        <v>-0.04234195045713995</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03586230130691592</v>
+        <v>0.03248860653522589</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.04029447190487345</v>
+        <v>0.02410374501372825</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.002828630571799495</v>
+        <v>-0.01377783075853012</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.03948636011240114</v>
+        <v>-0.05089360125318576</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.008088060941540465</v>
+        <v>-0.0008541754916494559</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.0379333862234954</v>
+        <v>-0.0469940639882902</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>-0.004361895214495148</v>
+        <v>-0.01081294492739804</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.01870046854730045</v>
+        <v>-0.02664017639557126</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.0009508069711446909</v>
+        <v>-0.001917725710568807</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.04077024031573817</v>
+        <v>-0.05937807401731454</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.02538079815579164</v>
+        <v>0.03128622349116617</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.005148761922544653</v>
+        <v>0.007448973890317179</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.01625726577463549</v>
+        <v>-0.01614624678594445</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.000274224578732607</v>
+        <v>0.0006756891558308276</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.1285435418830938</v>
+        <v>0.1749043800293844</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0133078046984072</v>
+        <v>0.02916969057410457</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.07234056222037899</v>
+        <v>-0.0609200474160333</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.01974218156298191</v>
+        <v>-0.01576130822637511</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.02302698593943986</v>
+        <v>0.02728267014966979</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.005027876714813306</v>
+        <v>0.004314531750168049</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.03218183624432958</v>
+        <v>0.03370988760830729</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>-0.005246621643664962</v>
+        <v>0.006335274134085855</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.07597400368563578</v>
+        <v>0.03273189505379026</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.04569312527883684</v>
+        <v>0.02683426763529906</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01988090913445029</v>
+        <v>-0.001539600088158011</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.01417888170194748</v>
+        <v>-0.01439645159157765</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01084643791369366</v>
+        <v>0.01035836932233591</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/bs_er_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_er_rs_smae_ind/single_run/summary.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2014-04-16</t>
+          <t>2015-11-02</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>413492077.5886057</v>
+        <v>177915156.3079344</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>85.91850575059652</v>
+        <v>181.0398344136775</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>3.134920775886057</v>
+        <v>0.7791515630793444</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1958449292214759</v>
+        <v>0.09357876694679224</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>4.134920775886057</v>
+        <v>1.779151563079344</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>99.81534602984412</v>
+        <v>72.47903292120611</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.2921788561694521</v>
+        <v>0.2284061017786495</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1446882056453889</v>
+        <v>0.1318757287318447</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.011405083572772</v>
+        <v>0.5197429444170015</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1011643925870889</v>
+        <v>0.09325647482980857</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.446540457372799</v>
+        <v>0.7349782379541339</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.1392389507706473</v>
+        <v>0.1639207625943824</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01436742685532842</v>
+        <v>0.01339654135429217</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.5490227655337294</v>
+        <v>0.186140799757799</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.05668923447408858</v>
+        <v>0.02685941188328589</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1363836647259014</v>
+        <v>0.06111392694884651</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3259697049379329</v>
+        <v>0.3444921117625716</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.344754909604952</v>
+        <v>0.720513661303137</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.3760343270564293</v>
+        <v>0.2392691432132895</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.2354334108021499</v>
+        <v>0.2846166167460186</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.1989583619230258</v>
+        <v>0.1731869130096168</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1289390922753209</v>
+        <v>0.0594014699500784</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4013653679880999</v>
+        <v>0.3758509041050829</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.014392493871142</v>
+        <v>0.5392413914026013</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.573378654002676</v>
+        <v>0.8106982870297424</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.41741853273215</v>
+        <v>0.792077147385378</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.02351898931010842</v>
+        <v>0.02137206600847244</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1342629618253698</v>
+        <v>0.1535192432204459</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1154,119 +1154,119 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.5256970000000012</v>
+        <v>0.01757199999999972</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>-0.04645166716674</v>
+        <v>-0.04704379363953556</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.860014790025654</v>
+        <v>2.671105026541228</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>2.671828684084602</v>
+        <v>4.408201404444532</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.3586223214701205</v>
+        <v>0.007453035264335013</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.1276477926617642</v>
+        <v>0.08619719131339935</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.996653892395871</v>
+        <v>0.2194952713802721</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.785942924172023</v>
+        <v>0.4503483152586496</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.04005989832336862</v>
+        <v>0.09246982898212461</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.04314503958291706</v>
+        <v>-0.1079580039517332</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3241137016061338</v>
+        <v>1.231436001746634</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.1424949650353223</v>
+        <v>-0.05051134366305403</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.54</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1770467301367767</v>
+        <v>0.005339514550626414</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>-0.03638868252250235</v>
+        <v>0.2972384925050044</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.466282305555075</v>
+        <v>0.1072509734896287</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.2779578586952727</v>
+        <v>0.6508588021920974</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.4509803921568628</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.00920884147838566</v>
+        <v>0.3270224134317161</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2825146520861316</v>
+        <v>-0.04361969953977048</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.02129151833284943</v>
+        <v>2.056661721819511</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.5009484523141031</v>
+        <v>1.410592565106258</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3830893731558615</v>
+        <v>0.1664780405009688</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.0001345147796664846</v>
+        <v>-0.1037326131653924</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>2.064042372737972</v>
+        <v>0.9893021444965862</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.466772366341879</v>
+        <v>0.1461766115894979</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.4423076923076923</v>
@@ -1274,61 +1274,41 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1987250969699628</v>
+        <v>0.0133239389102394</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.07977614994532574</v>
+        <v>0.05649884155975252</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.189237025710562</v>
+        <v>0.1675431216628905</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.473865947047077</v>
+        <v>0.3148552516133284</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.06334794701852524</v>
+        <v>0.007390295000283094</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.1072860625726386</v>
+        <v>0.09348379264220423</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.4300874329511726</v>
+        <v>0.1816014548232535</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.6513286313558074</v>
+        <v>0.4758457616192144</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>0.01072958226127132</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>0.09682630243824353</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>0.235365296891706</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>0.5332421021759186</v>
-      </c>
-      <c r="F10" s="13" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -1343,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -1421,7 +1401,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1433,358 +1413,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.01163799999999993</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.005737776239879366</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02106066901199477</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05612886317598176</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.007097432031920148</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.03830873191946638</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02166560650762195</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1424938830897335</v>
+        <v>0.009255999999999709</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.1661069362748091</v>
+        <v>0.0082397330310644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.00872715880020758</v>
+        <v>-0.004915622678296927</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.03552473924829713</v>
+        <v>-0.0009836356992604101</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.07771109096214102</v>
+        <v>0.009953794779225422</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.07786346921047094</v>
+        <v>-0.0022082077594614</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.07219873978063562</v>
+        <v>0.003605107775554561</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.009657296702543783</v>
+        <v>0.006976116794485954</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003565551149558699</v>
+        <v>0.001320133294634873</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.00338459136521152</v>
+        <v>0.005299745336912798</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.00119579214535781</v>
+        <v>-0.009387421337556656</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.02206570969539001</v>
+        <v>0.001411479317934283</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.02201884141398525</v>
+        <v>0.01137312501397414</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.001308125352029288</v>
+        <v>-0.01469088588396683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.03211044139313801</v>
+        <v>0.003330224863337783</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.009882439492674533</v>
+        <v>0.002949726319064094</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.02236290806908126</v>
+        <v>0.01062229305043427</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.0154228556853625</v>
+        <v>0.001923147016676063</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.004591010022204634</v>
+        <v>-0.002670963183788344</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01591943208180258</v>
+        <v>0.03463889104865947</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01802012820977728</v>
+        <v>0.01201915271235809</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.008205319110714093</v>
+        <v>0.015063924504362</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02788673655096785</v>
+        <v>0.002775344321517492</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.003735148634578467</v>
+        <v>0.01553151650465656</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03479337581117048</v>
+        <v>-0.001538709860513965</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02459053359555941</v>
+        <v>-0.005223687705015245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.006712205398711868</v>
+        <v>0.01572031658499662</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02158585118342793</v>
+        <v>-0.03114742281272709</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009861200427677019</v>
+        <v>0.02378584662733707</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.006997054075711384</v>
+        <v>-0.004963038655867114</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.004896580754659374</v>
+        <v>0.04125617573420759</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.05066798528529803</v>
+        <v>-0.02392261823805542</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01699022879151357</v>
+        <v>-0.003616704671131954</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02150810734349662</v>
+        <v>-0.01412617956369866</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.002827451988396179</v>
+        <v>-0.01197781080661497</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04605047800134998</v>
+        <v>0.01038754650196805</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.005040246905041013</v>
+        <v>0.0002207359533297204</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.007233921522167286</v>
+        <v>0.005987146531860166</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02613726075393119</v>
+        <v>-0.0121135201770618</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.04163128148518314</v>
+        <v>0.2021670549036998</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.0299054383786459</v>
+        <v>0.02126369131040229</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.00834647196202587</v>
+        <v>-0.01708412816391436</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.05697643326371438</v>
+        <v>-0.007198280518377898</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.03474544607015306</v>
+        <v>0.03926375672274474</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.008407156895956058</v>
+        <v>-0.01533655949848578</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.02208755182153843</v>
+        <v>0.0175531610649371</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.01774893672241484</v>
+        <v>0.02253061530401279</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.01151215346738188</v>
+        <v>0.02415273379768768</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.003084444229165983</v>
+        <v>-0.04363671647316847</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.006686431398680304</v>
+        <v>0.07511516492941861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01938825155815738</v>
+        <v>0.03807080609073976</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2479549891058725</v>
+        <v>-0.05416371162202949</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.03133001311022166</v>
+        <v>-0.02624247534612911</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.01367243718200939</v>
+        <v>0.01817274326519924</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.008814703935616897</v>
+        <v>0.02081303674939261</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.02792647332578202</v>
+        <v>0.1044145627700384</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02353328510906372</v>
+        <v>0.1202763307626533</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.0164711736193992</v>
+        <v>-0.02492759934676103</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01961135356679078</v>
+        <v>-0.04744675101942375</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.02695969894146688</v>
+        <v>-0.03656853361903312</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.0327772652408187</v>
+        <v>0.04502055264939653</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08480438532182633</v>
+        <v>0.01457941487909453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.03678642679122235</v>
+        <v>0.0300801318279309</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.04654935365650237</v>
+        <v>-0.0602605464032836</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.02588829783377966</v>
+        <v>-0.02302684222443241</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01805351437647973</v>
+        <v>0.006723417112133756</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02058017454627281</v>
+        <v>0.0252068429162966</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1032602416444808</v>
+        <v>-0.03496870991748058</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1190820564672053</v>
+        <v>0.08347617394270501</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02473360616971754</v>
+        <v>-0.002043590602744172</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.04699819059668897</v>
+        <v>-0.02551635206414027</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02345260236037638</v>
+        <v>-0.01819918221901551</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.04522815280627079</v>
+        <v>0.01122401994439137</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.0229261276016457</v>
+        <v>0.02836639912797589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02549861500524964</v>
+        <v>-0.04497253836136117</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.06155586443784744</v>
+        <v>0.01267168403615737</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.01937640190733669</v>
+        <v>-0.04409597628168338</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0228971387321204</v>
+        <v>-0.01964869858990659</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02431139130486248</v>
+        <v>0.02073097895352372</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01939210284133819</v>
+        <v>0.08214925533913875</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.08413660846378845</v>
+        <v>0.006279803331242562</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.03076261180790341</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.04833595962711967</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.006987983330472236</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01132829515097789</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02682684160010229</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>-0.04335489434679674</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.01165098654456398</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>-0.04040353015640785</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>-0.01806679669096045</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>0.01963545753031126</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.08023734575706754</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.006279694639991895</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1799,7 +1738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1877,7 +1816,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1889,358 +1828,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.02030868122239382</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.005510542496984128</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.01683073674696689</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>-0.02739235544509078</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.01178154247183438</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.009784531195559998</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.001699623564209052</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.01964108944769416</v>
+        <v>-0.006497303638055674</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.07846224141128977</v>
+        <v>-0.04081165572066903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.02738475063908297</v>
+        <v>0.2328805579991071</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.006896165163036372</v>
+        <v>0.0159654886806162</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.05264956476647176</v>
+        <v>-0.1012011591912055</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.08351900373812915</v>
+        <v>0.01577933637938966</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.04327619769216984</v>
+        <v>-0.003150590775611639</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.04891120846617381</v>
+        <v>0.01060266117441944</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.1375970142658529</v>
+        <v>-0.01527616535938636</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.105634800258062</v>
+        <v>-0.03361774799618156</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.04295431292725782</v>
+        <v>0.01245279779241182</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.07709821038372</v>
+        <v>-0.0240445312470855</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.008320691424260174</v>
+        <v>-0.04675698658519201</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04708545388095309</v>
+        <v>0.05187717665431113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2012070706959892</v>
+        <v>-0.02012528495497867</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.00742985056421186</v>
+        <v>-0.01627396103328793</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.08924200672759419</v>
+        <v>0.009441696763345941</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.002919500653787432</v>
+        <v>0.006312599868017132</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.001908903430570152</v>
+        <v>-0.01856794688790264</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.02068638149697644</v>
+        <v>-0.01475873032711905</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.0332805520138314</v>
+        <v>-0.007576292031665322</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03050911098336251</v>
+        <v>-0.007769627409346169</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.006180165991686692</v>
+        <v>-0.0009845733908824261</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.02162056880778063</v>
+        <v>-0.02777630943419618</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.0240588916342902</v>
+        <v>-0.002281717303408759</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.04159205909098906</v>
+        <v>-0.01265796507815642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.01681164434390892</v>
+        <v>-0.04285670494333338</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.002251312993828858</v>
+        <v>0.02530481640768367</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.008890020476877813</v>
+        <v>0.05509912626925217</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01162599648216012</v>
+        <v>0.03041987050855566</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.0207502670418438</v>
+        <v>0.02754470780935847</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.0008589092993083192</v>
+        <v>0.054456897220023</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.002415095852185245</v>
+        <v>-0.008848853902518883</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.001061628773180057</v>
+        <v>0.0349601829505839</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.0008650646871258827</v>
+        <v>-0.04472919818270715</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.001652196991832833</v>
+        <v>0.09098987327481733</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.005260711026741305</v>
+        <v>-0.008190896316319751</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.01458430525272469</v>
+        <v>0.05831262778760604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.03269252433266057</v>
+        <v>-0.07278551793566079</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.01436229866458416</v>
+        <v>0.04902154362335565</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.06170822927457231</v>
+        <v>-0.03537903776261964</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02698424683920342</v>
+        <v>-0.02945884420238054</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.04339674454548503</v>
+        <v>0.06291578589033908</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.04318034527877557</v>
+        <v>-0.01532429156117843</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01346667067439322</v>
+        <v>-0.01884088345817714</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.02676812542741036</v>
+        <v>0.02492636019143646</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.05025004435900537</v>
+        <v>0.01872178629963672</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.09228155229942514</v>
+        <v>0.004543030105493617</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01073652706748185</v>
+        <v>-0.02941668808760822</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.05946559628123804</v>
+        <v>0.004648662538928816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.07946583164019416</v>
+        <v>0.06154283060887056</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.09036787888443398</v>
+        <v>-0.04164775156275724</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.02519952768694944</v>
+        <v>0.03414077816116823</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02573840692061935</v>
+        <v>-0.04222519525887514</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06134631453402895</v>
+        <v>0.0327358408711691</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.02634191485461235</v>
+        <v>0.02518988878270823</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02669423020116546</v>
+        <v>-0.01267290537999444</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02383188280992288</v>
+        <v>-0.05107457566218654</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01592608373072935</v>
+        <v>-0.001313094898858003</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.007309566757521146</v>
+        <v>-0.05982634499724881</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01814763772990047</v>
+        <v>-0.01096535461911374</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.01373514738123016</v>
+        <v>-0.03440236184981638</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.06033115612441775</v>
+        <v>0.003248067297014989</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.0345615291263659</v>
+        <v>-0.05802230627565075</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.03447902562490346</v>
+        <v>0.02768286070824844</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.04234195045713995</v>
+        <v>-0.008859764657779934</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03248860653522589</v>
+        <v>-0.01525004989223688</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.02410374501372825</v>
+        <v>-0.01532339660217596</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.01377783075853012</v>
+        <v>0.1741972467190109</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.05089360125318576</v>
+        <v>-0.003525337278025842</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.0008541754916494559</v>
+        <v>-0.03810033762914966</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.0469940639882902</v>
+        <v>-0.02673245857563422</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>-0.01081294492739804</v>
+        <v>0.027215678907762</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.02664017639557126</v>
+        <v>0.005947459517368969</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.001917725710568807</v>
+        <v>0.03199298692370744</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.05937807401731454</v>
+        <v>0.007364748511233365</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.03128622349116617</v>
+        <v>0.02881737004468432</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.007448973890317179</v>
+        <v>0.02526908825355112</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.01614624678594445</v>
+        <v>-0.0004512335085130603</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.0006756891558308276</v>
+        <v>-0.01259976561952703</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.1749043800293844</v>
+        <v>0.01035847801358658</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.02916969057410457</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.0609200474160333</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.01576130822637511</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.02728267014966979</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.004314531750168049</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>0.03370988760830729</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.006335274134085855</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.03273189505379026</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.02683426763529906</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>-0.001539600088158011</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>-0.01439645159157765</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.01035836932233591</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
